--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/57.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/57.xlsx
@@ -479,13 +479,13 @@
         <v>-0.08427421418020217</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.499600112470346</v>
+        <v>-1.479487978154578</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2432713983229463</v>
+        <v>0.2155706309470797</v>
       </c>
       <c r="G2" t="n">
-        <v>0.118107746485447</v>
+        <v>0.1597665485486929</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1147822055720256</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.389597258894773</v>
+        <v>-1.395697685503607</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2147643158124188</v>
+        <v>0.2024481875868452</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09520339531152722</v>
+        <v>0.137908211335396</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1536880025054316</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.358990219494202</v>
+        <v>-1.414447866948196</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2205237967629507</v>
+        <v>0.1725327982337065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.133274643954141</v>
+        <v>0.1665183704402939</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1978143798403043</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.437987755467287</v>
+        <v>-1.496390099948621</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2557747721962814</v>
+        <v>0.1835784616896138</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07635684640001222</v>
+        <v>0.1411737266387051</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2440127829093921</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.434608184997426</v>
+        <v>-1.477635039138618</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3633812474329111</v>
+        <v>0.288428705388019</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09070279063780329</v>
+        <v>0.1679254574415517</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2878108441380178</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.386270141603112</v>
+        <v>-1.362832719757715</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4167224701385892</v>
+        <v>0.360178553959307</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01548615293987929</v>
+        <v>0.07835372669568536</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3252555305176151</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.123341876746499</v>
+        <v>-1.082260059643457</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4515001471267635</v>
+        <v>0.4310452373906639</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04066802392696091</v>
+        <v>0.02348587253610682</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3521613009746747</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5440935009114242</v>
+        <v>-0.5683012525715546</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3883611586698045</v>
+        <v>0.4001003019351744</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03508176044862545</v>
+        <v>-0.0003193314773698845</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3650472023827484</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05264130072601748</v>
+        <v>0.01460054811724111</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3272318588427304</v>
+        <v>0.4104402871680842</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06848040678667235</v>
+        <v>-0.04872019670138877</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3579605717115747</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8361636996968752</v>
+        <v>0.6578070358781476</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1302421183493497</v>
+        <v>0.22638879399056</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.006461842612899576</v>
+        <v>-0.03629001330926335</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.32435997490639</v>
       </c>
       <c r="E12" t="n">
-        <v>1.609984090462701</v>
+        <v>1.371482538789171</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2643485031555134</v>
+        <v>-0.15339112372083</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09572548741082355</v>
+        <v>0.03346844425244228</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.257531069240745</v>
       </c>
       <c r="E13" t="n">
-        <v>2.346244956033706</v>
+        <v>2.052053987049017</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6461057837009206</v>
+        <v>-0.5367402972325496</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2213972031720539</v>
+        <v>0.1440696300119049</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1531715963582267</v>
       </c>
       <c r="E14" t="n">
-        <v>3.030899213303703</v>
+        <v>2.650757612631002</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.202680968298563</v>
+        <v>-1.090432386791204</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3968079501220884</v>
+        <v>0.2876217803326813</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.01324091791965661</v>
       </c>
       <c r="E15" t="n">
-        <v>3.725448823633261</v>
+        <v>3.338956728874259</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.800422748973316</v>
+        <v>-1.711071809512432</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5466178865862998</v>
+        <v>0.3940669666007826</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1546108274247176</v>
       </c>
       <c r="E16" t="n">
-        <v>4.324950835381109</v>
+        <v>3.965861256787043</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.304508770050697</v>
+        <v>-2.278027844028327</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7260077560314386</v>
+        <v>0.5947125716305912</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3376082221535363</v>
       </c>
       <c r="E17" t="n">
-        <v>4.937392924206844</v>
+        <v>4.55154612552384</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.854132688695442</v>
+        <v>-2.896450205089576</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9479572803793802</v>
+        <v>0.7906977727693679</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5216015806504668</v>
       </c>
       <c r="E18" t="n">
-        <v>5.290283269042441</v>
+        <v>4.942349139626097</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.401866158202607</v>
+        <v>-3.503596047718769</v>
       </c>
       <c r="G18" t="n">
-        <v>1.141257000778435</v>
+        <v>0.9861224568062131</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6981447329881463</v>
       </c>
       <c r="E19" t="n">
-        <v>5.596027965406768</v>
+        <v>5.28995147219429</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.917502857056243</v>
+        <v>-4.082519945753813</v>
       </c>
       <c r="G19" t="n">
-        <v>1.373172019063763</v>
+        <v>1.23996107381725</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8651647443608779</v>
       </c>
       <c r="E20" t="n">
-        <v>5.942382400270334</v>
+        <v>5.657432339459056</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.426299295520149</v>
+        <v>-4.640175604830315</v>
       </c>
       <c r="G20" t="n">
-        <v>1.537781680749266</v>
+        <v>1.420759860025677</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.023354069303702</v>
       </c>
       <c r="E21" t="n">
-        <v>6.148162317557008</v>
+        <v>5.949273284076234</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.74179814830737</v>
+        <v>-5.009386207134338</v>
       </c>
       <c r="G21" t="n">
-        <v>1.681314313608387</v>
+        <v>1.557826723790591</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.170825441004166</v>
       </c>
       <c r="E22" t="n">
-        <v>6.265594004975372</v>
+        <v>6.115917031218692</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.02795768182064</v>
+        <v>-5.294162745513082</v>
       </c>
       <c r="G22" t="n">
-        <v>1.887397971392081</v>
+        <v>1.757114645393959</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.30354530942604</v>
       </c>
       <c r="E23" t="n">
-        <v>6.333706286630535</v>
+        <v>6.274911153233376</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.304842761523279</v>
+        <v>-5.520088647713083</v>
       </c>
       <c r="G23" t="n">
-        <v>1.988748490247306</v>
+        <v>1.885194937907667</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.415176272397864</v>
       </c>
       <c r="E24" t="n">
-        <v>6.41934890837679</v>
+        <v>6.438560189853001</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.429664857781799</v>
+        <v>-5.619114911349389</v>
       </c>
       <c r="G24" t="n">
-        <v>2.084718898812936</v>
+        <v>1.96484752868758</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.499685084531986</v>
       </c>
       <c r="E25" t="n">
-        <v>6.416378594681027</v>
+        <v>6.486431643929603</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.455796299256393</v>
+        <v>-5.639494190921573</v>
       </c>
       <c r="G25" t="n">
-        <v>2.141443351512536</v>
+        <v>2.028353079471264</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.553909089596192</v>
       </c>
       <c r="E26" t="n">
-        <v>6.474534531208954</v>
+        <v>6.543578771658188</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.446832295070227</v>
+        <v>-5.613668014745691</v>
       </c>
       <c r="G26" t="n">
-        <v>2.171666140886756</v>
+        <v>2.040747887464138</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.576670770234195</v>
       </c>
       <c r="E27" t="n">
-        <v>6.350959722734384</v>
+        <v>6.471994821510976</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.430885309055972</v>
+        <v>-5.606804882330584</v>
       </c>
       <c r="G27" t="n">
-        <v>2.176028293566858</v>
+        <v>2.048554872126513</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.569145253748078</v>
       </c>
       <c r="E28" t="n">
-        <v>6.261934480914884</v>
+        <v>6.427520625603861</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.354333250036309</v>
+        <v>-5.488030607022528</v>
       </c>
       <c r="G28" t="n">
-        <v>2.132977652519273</v>
+        <v>2.009726711924055</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.532906359647127</v>
       </c>
       <c r="E29" t="n">
-        <v>6.16723087759486</v>
+        <v>6.358308047047845</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.179110053694374</v>
+        <v>-5.327919720248718</v>
       </c>
       <c r="G29" t="n">
-        <v>2.050258990497348</v>
+        <v>1.92645485184832</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.470168163005276</v>
       </c>
       <c r="E30" t="n">
-        <v>6.005804391921305</v>
+        <v>6.261836893606604</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.968857588085107</v>
+        <v>-5.141196469546699</v>
       </c>
       <c r="G30" t="n">
-        <v>1.994457347781668</v>
+        <v>1.897305522865177</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.383996555041533</v>
       </c>
       <c r="E31" t="n">
-        <v>5.841122149675268</v>
+        <v>6.160747420801028</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.821122601763192</v>
+        <v>-4.984975046928512</v>
       </c>
       <c r="G31" t="n">
-        <v>1.889623571941535</v>
+        <v>1.788316967375036</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.278943796804117</v>
       </c>
       <c r="E32" t="n">
-        <v>5.662197039785812</v>
+        <v>6.000100413752357</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.563353350950852</v>
+        <v>-4.737759253585944</v>
       </c>
       <c r="G32" t="n">
-        <v>1.824468795647924</v>
+        <v>1.753654565394767</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.160714153574978</v>
       </c>
       <c r="E33" t="n">
-        <v>5.402279343389627</v>
+        <v>5.758584024173661</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.405196345065005</v>
+        <v>-4.574669819187235</v>
       </c>
       <c r="G33" t="n">
-        <v>1.727955557679988</v>
+        <v>1.663344220709359</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.035922345147611</v>
       </c>
       <c r="E34" t="n">
-        <v>5.195055133940413</v>
+        <v>5.546753693773646</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.180211855429565</v>
+        <v>-4.360670915821043</v>
       </c>
       <c r="G34" t="n">
-        <v>1.579048303817363</v>
+        <v>1.521907275295545</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9109707849070977</v>
       </c>
       <c r="E35" t="n">
-        <v>4.927507329878111</v>
+        <v>5.31712465818477</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.038970999513325</v>
+        <v>-4.224017578274964</v>
       </c>
       <c r="G35" t="n">
-        <v>1.512773713161242</v>
+        <v>1.479097552915275</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.791475616018861</v>
       </c>
       <c r="E36" t="n">
-        <v>4.625685643306627</v>
+        <v>5.076215749600115</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.876322842724244</v>
+        <v>-4.041976383648001</v>
       </c>
       <c r="G36" t="n">
-        <v>1.466882671522042</v>
+        <v>1.436504352375251</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6820421753270196</v>
       </c>
       <c r="E37" t="n">
-        <v>4.315053042638842</v>
+        <v>4.761778463750775</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.732418768172984</v>
+        <v>-3.917858745771125</v>
       </c>
       <c r="G37" t="n">
-        <v>1.369954077573241</v>
+        <v>1.354327299914279</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5850687560945823</v>
       </c>
       <c r="E38" t="n">
-        <v>4.045027740787588</v>
+        <v>4.481529671515871</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.635998848068591</v>
+        <v>-3.835907363960549</v>
       </c>
       <c r="G38" t="n">
-        <v>1.264057819914213</v>
+        <v>1.266732932002429</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5016843238077622</v>
       </c>
       <c r="E39" t="n">
-        <v>3.785101505501928</v>
+        <v>4.21100301486833</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.572840647110314</v>
+        <v>-3.817844258158317</v>
       </c>
       <c r="G39" t="n">
-        <v>1.173561449422396</v>
+        <v>1.211033146039767</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4316388195238254</v>
       </c>
       <c r="E40" t="n">
-        <v>3.453614497054773</v>
+        <v>3.899864180038843</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.490599552978283</v>
+        <v>-3.721215440222137</v>
       </c>
       <c r="G40" t="n">
-        <v>1.096451008023169</v>
+        <v>1.120733170005863</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3727994714671578</v>
       </c>
       <c r="E41" t="n">
-        <v>3.23363074704799</v>
+        <v>3.701832695029576</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.402154650682709</v>
+        <v>-3.641879703233796</v>
       </c>
       <c r="G41" t="n">
-        <v>1.029715927256104</v>
+        <v>1.067491364370495</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3228383215333662</v>
       </c>
       <c r="E42" t="n">
-        <v>2.935946762347565</v>
+        <v>3.400584333894236</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.321936053514774</v>
+        <v>-3.614143865419016</v>
       </c>
       <c r="G42" t="n">
-        <v>1.021949197358394</v>
+        <v>1.044250946903687</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2788870552346272</v>
       </c>
       <c r="E43" t="n">
-        <v>2.585024021615157</v>
+        <v>3.086641083793062</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.224226456139396</v>
+        <v>-3.523475497296356</v>
       </c>
       <c r="G43" t="n">
-        <v>0.92500047602726</v>
+        <v>0.9792260837142229</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.238486688188468</v>
       </c>
       <c r="E44" t="n">
-        <v>2.367350651131896</v>
+        <v>2.866784197287043</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.19336721453899</v>
+        <v>-3.476496967090514</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9140804562307628</v>
+        <v>0.965455904595282</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1997508843427317</v>
       </c>
       <c r="E45" t="n">
-        <v>2.102238870252524</v>
+        <v>2.587366117013869</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.094580802208814</v>
+        <v>-3.380620486309103</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8461444416511804</v>
+        <v>0.8862516055127792</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1611499788572927</v>
       </c>
       <c r="E46" t="n">
-        <v>1.959691259286352</v>
+        <v>2.418834055456199</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.015958977372605</v>
+        <v>-3.317324138317543</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8023002938031463</v>
+        <v>0.8600908878457014</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1220209169787424</v>
       </c>
       <c r="E47" t="n">
-        <v>1.73454575059225</v>
+        <v>2.192913337581951</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.94431555995941</v>
+        <v>-3.21835901922908</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7361531765684659</v>
+        <v>0.7694524058362028</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.08178161251758435</v>
       </c>
       <c r="E48" t="n">
-        <v>1.61564659402563</v>
+        <v>2.044306164692287</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.874439387707092</v>
+        <v>-3.188070968342448</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6690131084720397</v>
+        <v>0.6854388822175416</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.04018549689709752</v>
       </c>
       <c r="E49" t="n">
-        <v>1.431411514724405</v>
+        <v>1.834188491552581</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.837548945494663</v>
+        <v>-3.123133323809759</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5883700065130881</v>
+        <v>0.6005952565578262</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.003110893577382761</v>
       </c>
       <c r="E50" t="n">
-        <v>1.331859042024234</v>
+        <v>1.7272968433491</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.751537321738974</v>
+        <v>-3.043291047699378</v>
       </c>
       <c r="G50" t="n">
-        <v>0.587973558073202</v>
+        <v>0.5581094020569101</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.04844608783452374</v>
       </c>
       <c r="E51" t="n">
-        <v>1.251356221820934</v>
+        <v>1.593649194898035</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.683144476572508</v>
+        <v>-2.976274793500332</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4942153318021369</v>
+        <v>0.481571066252473</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.09531580077784596</v>
       </c>
       <c r="E52" t="n">
-        <v>1.202452172038598</v>
+        <v>1.516122787597266</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.596887054784091</v>
+        <v>-2.86183415708074</v>
       </c>
       <c r="G52" t="n">
-        <v>0.416626102671663</v>
+        <v>0.3954051325655678</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1439241726313443</v>
       </c>
       <c r="E53" t="n">
-        <v>1.181988723413024</v>
+        <v>1.416272063686165</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.548062294689732</v>
+        <v>-2.824138009654326</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4097583958514799</v>
+        <v>0.3971690231627232</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1937983918398024</v>
       </c>
       <c r="E54" t="n">
-        <v>1.104003655763341</v>
+        <v>1.276218418367215</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.490264381599056</v>
+        <v>-2.774714917376078</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3509852195986835</v>
+        <v>0.329644095119269</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2443432504834367</v>
       </c>
       <c r="E55" t="n">
-        <v>1.104023173224997</v>
+        <v>1.215910681691721</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.469444129377584</v>
+        <v>-2.744537872052614</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3236125895469074</v>
+        <v>0.2981892659780181</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2948633041154629</v>
       </c>
       <c r="E56" t="n">
-        <v>1.08506622867099</v>
+        <v>1.169360925721632</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.433601530887807</v>
+        <v>-2.708652579115465</v>
       </c>
       <c r="G56" t="n">
-        <v>0.272080391568464</v>
+        <v>0.2594910188797073</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3449251325307251</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9951748994905079</v>
+        <v>1.027065211994957</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.400185806770812</v>
+        <v>-2.69652430645833</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2385115773616044</v>
+        <v>0.209888000001818</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3940318156444041</v>
       </c>
       <c r="E58" t="n">
-        <v>1.008650486922579</v>
+        <v>0.9924863691474024</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.433226429671608</v>
+        <v>-2.71800144324866</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2358992871030925</v>
+        <v>0.1868598349305184</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4417428280910361</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9961269856669116</v>
+        <v>0.9199478931410792</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.36163394063492</v>
+        <v>-2.659099573733069</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2266059257514823</v>
+        <v>0.181416292890542</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4872156590892138</v>
       </c>
       <c r="E60" t="n">
-        <v>1.009964256060295</v>
+        <v>0.866691449409469</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.373642668839413</v>
+        <v>-2.67629445745195</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2063846156345772</v>
+        <v>0.136174816772078</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.530047356739026</v>
       </c>
       <c r="E61" t="n">
-        <v>1.124826347667519</v>
+        <v>0.9120817461730594</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.405498215865287</v>
+        <v>-2.688661209093694</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2273457595323777</v>
+        <v>0.1438555478543663</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5701245194782393</v>
       </c>
       <c r="E62" t="n">
-        <v>1.163452624125974</v>
+        <v>0.8839174390828644</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.39335530511191</v>
+        <v>-2.667776305280487</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1941270397939715</v>
+        <v>0.09170123078563987</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6071634372449202</v>
       </c>
       <c r="E63" t="n">
-        <v>1.234779187747599</v>
+        <v>0.8882253088227359</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.39949781624744</v>
+        <v>-2.665631824181041</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1586223373591135</v>
+        <v>0.0636131637800383</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6410256316964038</v>
       </c>
       <c r="E64" t="n">
-        <v>1.336715230452502</v>
+        <v>0.9093236848728047</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.468117551905657</v>
+        <v>-2.740986913872587</v>
       </c>
       <c r="G64" t="n">
-        <v>0.184466506194959</v>
+        <v>0.0972948133120963</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6714901022971969</v>
       </c>
       <c r="E65" t="n">
-        <v>1.391640417155694</v>
+        <v>0.910085475798063</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.603930418759177</v>
+        <v>-2.856662639662593</v>
       </c>
       <c r="G65" t="n">
-        <v>0.147785266774654</v>
+        <v>0.0372164068110591</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6981782734295023</v>
       </c>
       <c r="E66" t="n">
-        <v>1.440396866134257</v>
+        <v>0.9094664063111637</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.687213257407094</v>
+        <v>-2.925667845188515</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1554720970637098</v>
+        <v>0.02395368169517258</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7204141569611638</v>
       </c>
       <c r="E67" t="n">
-        <v>1.498403982017058</v>
+        <v>0.8711206933640133</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.741881057584699</v>
+        <v>-2.942671823735574</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1111784376769123</v>
+        <v>-0.02473567600894814</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7374719075641507</v>
       </c>
       <c r="E68" t="n">
-        <v>1.543673514486653</v>
+        <v>0.8892743723867426</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.837515399857442</v>
+        <v>-3.013892261159445</v>
       </c>
       <c r="G68" t="n">
-        <v>0.07396839702986682</v>
+        <v>-0.08454937693627669</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7484168102690212</v>
       </c>
       <c r="E69" t="n">
-        <v>1.551135893966665</v>
+        <v>0.8580049591312231</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.896464843185818</v>
+        <v>-3.042227346039129</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1074725596449911</v>
+        <v>-0.06991555013906053</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7527809745865467</v>
       </c>
       <c r="E70" t="n">
-        <v>1.571326098129056</v>
+        <v>0.8348450511937459</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.936715948327129</v>
+        <v>-3.108634594442443</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1096951105910611</v>
+        <v>-0.07291331026527724</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7500681398932434</v>
       </c>
       <c r="E71" t="n">
-        <v>1.565731295761246</v>
+        <v>0.8064977679005264</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.012292744184673</v>
+        <v>-3.147749722323311</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1060520543888449</v>
+        <v>-0.09712472144946814</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7395613637290078</v>
       </c>
       <c r="E72" t="n">
-        <v>1.552267296822033</v>
+        <v>0.7787299092502176</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.087334944569047</v>
+        <v>-3.208909518184222</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06336919550933907</v>
+        <v>-0.1653034844583963</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7212198955345124</v>
       </c>
       <c r="E73" t="n">
-        <v>1.590082988701089</v>
+        <v>0.7919121248367733</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.15605104769419</v>
+        <v>-3.266063660000591</v>
       </c>
       <c r="G73" t="n">
-        <v>0.004005006120773846</v>
+        <v>-0.2405042642187249</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6945173928208593</v>
       </c>
       <c r="E74" t="n">
-        <v>1.563430065047876</v>
+        <v>0.7354041939774192</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.204091449798251</v>
+        <v>-3.306449252651125</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.01366927525003138</v>
+        <v>-0.2786053989744993</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6591274508593247</v>
       </c>
       <c r="E75" t="n">
-        <v>1.531944739872787</v>
+        <v>0.7425024508134132</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.220917026547361</v>
+        <v>-3.300534241928023</v>
       </c>
       <c r="G75" t="n">
-        <v>0.001673889294242769</v>
+        <v>-0.267474956544524</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6150339200169681</v>
       </c>
       <c r="E76" t="n">
-        <v>1.534026399142528</v>
+        <v>0.7454715446678227</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.286405429451154</v>
+        <v>-3.357738702200223</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.009297973759778045</v>
+        <v>-0.2901749842917332</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5623822622759542</v>
       </c>
       <c r="E77" t="n">
-        <v>1.396071490872269</v>
+        <v>0.6553606440437111</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.314880796086491</v>
+        <v>-3.385231486625318</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.01258300652474308</v>
+        <v>-0.3103773868676591</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5018493885581753</v>
       </c>
       <c r="E78" t="n">
-        <v>1.431624986961267</v>
+        <v>0.6928353902644653</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.312350845119339</v>
+        <v>-3.368084481679562</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01839547456796753</v>
+        <v>-0.284016615218608</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4341272017383073</v>
       </c>
       <c r="E79" t="n">
-        <v>1.449773176697905</v>
+        <v>0.7114135740782112</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.268529569296684</v>
+        <v>-3.331499914686522</v>
       </c>
       <c r="G79" t="n">
-        <v>0.06037509490718286</v>
+        <v>-0.2384085767734185</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.360216289474378</v>
       </c>
       <c r="E80" t="n">
-        <v>1.475603927278862</v>
+        <v>0.7604316790270991</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.21800831483995</v>
+        <v>-3.290322949957907</v>
       </c>
       <c r="G80" t="n">
-        <v>0.05329147616743091</v>
+        <v>-0.2517207054641216</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.281803822274088</v>
       </c>
       <c r="E81" t="n">
-        <v>1.599272663537652</v>
+        <v>0.9278268484433105</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.104009870911001</v>
+        <v>-3.175161997219075</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02683738665483739</v>
+        <v>-0.2716699909591971</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2011685490424104</v>
       </c>
       <c r="E82" t="n">
-        <v>1.6785361249258</v>
+        <v>1.015280934599508</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.989532334290466</v>
+        <v>-3.045745368502612</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04872012069520422</v>
+        <v>-0.2379364981696155</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1205280092703133</v>
       </c>
       <c r="E83" t="n">
-        <v>1.85494165249961</v>
+        <v>1.206215382614134</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.85054696503684</v>
+        <v>-2.903155673009744</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1015349818568488</v>
+        <v>-0.1968735886075525</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.04274122030462237</v>
       </c>
       <c r="E84" t="n">
-        <v>2.055348168624133</v>
+        <v>1.47299163702035</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.767586164506247</v>
+        <v>-2.803337274894511</v>
       </c>
       <c r="G84" t="n">
-        <v>0.06030678379138708</v>
+        <v>-0.2348624979588053</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.02969405642604882</v>
       </c>
       <c r="E85" t="n">
-        <v>2.199720052334459</v>
+        <v>1.676558762091782</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.548783220929648</v>
+        <v>-2.588059062908839</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1079379291213499</v>
+        <v>-0.1853509671824282</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.09402727571714903</v>
       </c>
       <c r="E86" t="n">
-        <v>2.365791693882128</v>
+        <v>1.919953707354862</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.360804448514543</v>
+        <v>-2.379603423613272</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1129136620022606</v>
+        <v>-0.1979616870948711</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1474162428639463</v>
       </c>
       <c r="E87" t="n">
-        <v>2.477929269826318</v>
+        <v>2.08067817432948</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.09147872567952</v>
+        <v>-2.119375887513299</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1286581543518349</v>
+        <v>-0.1919838545420633</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1877449456063281</v>
       </c>
       <c r="E88" t="n">
-        <v>2.577600067137779</v>
+        <v>2.254978865647833</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.788897077944808</v>
+        <v>-1.805672336238086</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1393384753223702</v>
+        <v>-0.1509026473596979</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2126559163981022</v>
       </c>
       <c r="E89" t="n">
-        <v>2.617686493696368</v>
+        <v>2.319719505801932</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.576695305852654</v>
+        <v>-1.581876582001629</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08077023241696117</v>
+        <v>-0.1813816034181518</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2198749495222988</v>
       </c>
       <c r="E90" t="n">
-        <v>2.672612290320238</v>
+        <v>2.435231162929894</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.340598671407541</v>
+        <v>-1.384739850625151</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07720402622001528</v>
+        <v>-0.1975713378617523</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2088181672056423</v>
       </c>
       <c r="E91" t="n">
-        <v>2.680352183708171</v>
+        <v>2.449683843286116</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9814121154258725</v>
+        <v>-1.056145695947812</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07894412991077748</v>
+        <v>-0.158741347897264</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1800121071577142</v>
       </c>
       <c r="E92" t="n">
-        <v>2.617716989730206</v>
+        <v>2.381900918796397</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7664547217161707</v>
+        <v>-0.8953645063502564</v>
       </c>
       <c r="G92" t="n">
-        <v>0.06681768701567259</v>
+        <v>-0.1624691830735481</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1370998269917996</v>
       </c>
       <c r="E93" t="n">
-        <v>2.540203390763649</v>
+        <v>2.310751232171029</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4356959585570523</v>
+        <v>-0.6548971803355671</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0199581673479806</v>
+        <v>-0.1840134111383197</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08522531448387111</v>
       </c>
       <c r="E94" t="n">
-        <v>2.488667533261145</v>
+        <v>2.237330200945451</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1588438145709576</v>
+        <v>-0.4106703032694028</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.07168249033959966</v>
+        <v>-0.174832885111908</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.03103793719640978</v>
       </c>
       <c r="E95" t="n">
-        <v>2.336755810144859</v>
+        <v>2.077559039988591</v>
       </c>
       <c r="F95" t="n">
-        <v>0.05829282571676499</v>
+        <v>-0.214544820374974</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1285307569365791</v>
+        <v>-0.1865683688532173</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.01898124942406001</v>
       </c>
       <c r="E96" t="n">
-        <v>2.179474345390484</v>
+        <v>1.92850113571881</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2314663836244876</v>
+        <v>-0.06855725679194261</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1849398806463</v>
+        <v>-0.2048891661413755</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05892392798551893</v>
       </c>
       <c r="E97" t="n">
-        <v>2.001785544712796</v>
+        <v>1.775071929958775</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3658075118850148</v>
+        <v>0.09343096582489735</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2056668150042293</v>
+        <v>-0.2013644345504485</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08597939217858107</v>
       </c>
       <c r="E98" t="n">
-        <v>1.787900391552817</v>
+        <v>1.598463298799607</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4658893957326036</v>
+        <v>0.2055264572423927</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.348274198196723</v>
+        <v>-0.2865575447579405</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1008124557976334</v>
       </c>
       <c r="E99" t="n">
-        <v>1.624627675990746</v>
+        <v>1.486547124061076</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5173532825952513</v>
+        <v>0.3039987604240434</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3342844476341528</v>
+        <v>-0.2656275068146541</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1066252109157478</v>
       </c>
       <c r="E100" t="n">
-        <v>1.442971341310811</v>
+        <v>1.333978516375933</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5375306784234305</v>
+        <v>0.3507943144268614</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.438945615922766</v>
+        <v>-0.3401482250204086</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1081837262488042</v>
       </c>
       <c r="E101" t="n">
-        <v>1.298425020286935</v>
+        <v>1.265443559691784</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5308929116983814</v>
+        <v>0.4069899658997204</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4421202530452397</v>
+        <v>-0.3531218477355165</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1110419087993049</v>
       </c>
       <c r="E102" t="n">
-        <v>1.080410704145372</v>
+        <v>1.131557432256111</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4861942649822232</v>
+        <v>0.4161381661302646</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4770650482988429</v>
+        <v>-0.3920219785778309</v>
       </c>
     </row>
   </sheetData>
